--- a/input_data/blanks/blanks_unsh.xlsx
+++ b/input_data/blanks/blanks_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_24/blanks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_31/blanks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80F811A-B072-744E-8D06-FD619D9B7824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F761DE2A-5CB4-EE46-99BA-EFC488CA7948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>Отбор:</t>
   </si>
@@ -62,46 +62,49 @@
     <t>37664М Бобышка LM ARUM Conmet NP (2.2) D=8 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
+    <t>36463М Бобышка LM ADM / MEDENTiKA Alpha Bio Internal D=11.5 мм с позиционером с внутр. резьбой V.1</t>
+  </si>
+  <si>
+    <t>36405М Бобышка LM ADM / MEDENTiKA Mis SP (3.75/4.2) D=11.5 мм с позиционером без внутр. резьбы V.2</t>
+  </si>
+  <si>
+    <t>36414М  Бобышка LM ADM / MEDENTiKA Straumann Bone Level RC ( 4.1/4.8) D=11.5 мм с позиционером без внутр. резьбы V.1</t>
+  </si>
+  <si>
+    <t>36413М  Бобышка LM ADM / MEDENTiKA Straumann Bone Level NC (3.3) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04083311) V.1</t>
+  </si>
+  <si>
+    <t>36405М Бобышка LM ADM / MEDENTiKA Mis SP (3.75/4.2) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04103511) V.1</t>
+  </si>
+  <si>
+    <t>36706Т Бобышка LM ARUM Implantium D=10 мм с позиционером без внутр. резьбы (арт. A005) V.1</t>
+  </si>
+  <si>
+    <t>36467М Бобышка LM ADM / MEDENTiKA Alpha Bio Conical Narrow D=11.5 мм с позиционером с внутр. резьбой V.1</t>
+  </si>
+  <si>
+    <t>36411М Бобышка LM ADM / MEDENTiKA Astra Tech 3.5/4.0 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 040335) V.1</t>
+  </si>
+  <si>
+    <t>36452М Бобышка LM ADM / MEDENTiKA Straumann SynOcta RN (4.8) D=11.5 мм с позиционером без внутр. резьбы V.2</t>
+  </si>
+  <si>
+    <t>36412М  Бобышка LM ADM / MEDENTiKA ICX Medentis D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04140011) V.1</t>
+  </si>
+  <si>
+    <t>36441М Бобышка LM ADM / MEDENTiKA Anthogyr Axiom D=11.5 мм с позиционером без внутр. резьбы V.1</t>
+  </si>
+  <si>
+    <t>36425Муп2 Бобышка LM ADM / MEDENTiKA Osstem Implant Mini (3.5) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.2</t>
+  </si>
+  <si>
     <t>36426М Бобышка LM ADM / MEDENTiKA Osstem Implant Regular (4.0/4.5/5.0) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 410140) V.1</t>
   </si>
   <si>
-    <t>36463М Бобышка LM ADM / MEDENTiKA Alpha Bio Internal D=11.5 мм с позиционером с внутр. резьбой V.1</t>
-  </si>
-  <si>
-    <t>36405М Бобышка LM ADM / MEDENTiKA Mis SP (3.75/4.2) D=11.5 мм с позиционером без внутр. резьбы V.2</t>
-  </si>
-  <si>
-    <t>36414М  Бобышка LM ADM / MEDENTiKA Straumann Bone Level RC ( 4.1/4.8) D=11.5 мм с позиционером без внутр. резьбы V.1</t>
-  </si>
-  <si>
-    <t>36413М  Бобышка LM ADM / MEDENTiKA Straumann Bone Level NC (3.3) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04083311) V.1</t>
-  </si>
-  <si>
-    <t>36405М Бобышка LM ADM / MEDENTiKA Mis SP (3.75/4.2) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04103511) V.1</t>
-  </si>
-  <si>
-    <t>36706Т Бобышка LM ARUM Implantium D=10 мм с позиционером без внутр. резьбы (арт. A005) V.1</t>
-  </si>
-  <si>
-    <t>36467М Бобышка LM ADM / MEDENTiKA Alpha Bio Conical Narrow D=11.5 мм с позиционером с внутр. резьбой V.1</t>
-  </si>
-  <si>
-    <t>36411М Бобышка LM ADM / MEDENTiKA Astra Tech 3.5/4.0 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 040335) V.1</t>
-  </si>
-  <si>
-    <t>36452М Бобышка LM ADM / MEDENTiKA Straumann SynOcta RN (4.8) D=11.5 мм с позиционером без внутр. резьбы V.2</t>
-  </si>
-  <si>
-    <t>36412М  Бобышка LM ADM / MEDENTiKA ICX Medentis D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04140011) V.1</t>
-  </si>
-  <si>
-    <t>36441М Бобышка LM ADM / MEDENTiKA Anthogyr Axiom D=11.5 мм с позиционером без внутр. резьбы V.1</t>
-  </si>
-  <si>
     <t>36452Мупм2 Бобышка LM ADM / MEDENTiKA Straumann SynOcta RN (4.8) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
-    <t>36412М упм Бобышка LM ADM / MEDENTiKA ICX Medentis D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04140011) / 1 ВИНТ В ПРОБИРКЕ, В БЛИСТЕРЕ V.1</t>
+    <t>36966МД Бобышка LM ADM / MEDENTiKA Liko-M D=11.5 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
     <t>36441Муп2 Бобышка LM ADM / MEDENTiKA Anthogyr Axiom D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
@@ -119,6 +122,9 @@
     <t>36416МС Бобышка LM ADM / MEDENTiKA Ankylos C D=11.5 мм без позиционера без внутр. резьбы (ADM арт. 040700) V.1</t>
   </si>
   <si>
+    <t>36984Мопт Бобышка LM TRINITI MegaGen MiNi D=10 мм с позиционером без внутр. резьбы / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
+  </si>
+  <si>
     <t>36432М Бобышка LM ADM / MEDENTiKA BoneTrust Conical 3.4 / 4.0 D=11.5 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
@@ -140,139 +146,157 @@
     <t>36414Мупм2 Бобышка LM ADM / MEDENTiKA Straumann Bone Level RC ( 4.1/4.8) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
+    <t>36400Мупм2 Бобышка LM ADM / MEDENTiKA Nobel Replace Select 3.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
     <t>36608М Бобышка LM ARUM Osstem Implant Regular (4.0/4.5/5.0) D=10 мм с позиционером без внутр. резьбы V.3</t>
   </si>
   <si>
     <t>36436Мупм2 Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) NP (3.3) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
+    <t>36635Муп2 Бобышка LM ARUM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=10 мм с позиционером с внутр. резьбой (арт. A090) / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>36425Мупм2 Бобышка LM ADM / MEDENTiKA Osstem Implant Mini (3.5) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 041035) / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36474Муп2 Бобышка LM ADM / MEDENTiKA NeoBiotech 3.8 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36410М Бобышка LM ADM / MEDENTiKA Astra Tech 4.5/5.0 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04034511) V.1</t>
+  </si>
+  <si>
+    <t>36444Мупм2 Бобышка LM ADM / MEDENTiKA BioHorizons 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36417Мупм2 Бобышка LM ADM / MEDENTiKA Mis WP (5.0/6.0) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36467Муп2 Бобышка LM ADM / MEDENTiKA Alpha Bio Conical Narrow D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>37559МД Бобышка LM Long (собств. разр.) Nobel Active NP (3.5) D=10 мм с позиционером с внутр. резьбой V.1</t>
+  </si>
+  <si>
+    <t>36422Мупм2 Бобышка LM ADM / MEDENTiKA Bego Semados 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
+  </si>
+  <si>
+    <t>36525М Бобышка LM ZIRKONZAHN Zimmer 4.5 D=12 мм с позиционером с внутр. резьбой (арт. BSAF1182) V.1</t>
+  </si>
+  <si>
+    <t>37473МД Бобышка LM Long (собств. разр.) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) D=10 мм с позиционером с внутр. резьбой V.1</t>
+  </si>
+  <si>
+    <t>36461Муп2 Бобышка LM ADM / MEDENTiKA MegaGen AnyOne D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36652Муп2 Бобышка LM ADM / MEDENTiKA MegaGen MiNi D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, В БЛИСТЕРЕ V.1</t>
+  </si>
+  <si>
+    <t>36451Мупм2 Бобышка LM ADM / MEDENTiKA Straumann SynOcta WN (6.5) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36401Мупм2 Бобышка LM ADM / MEDENTiKA Nobel Replace Select 4.3 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
+  </si>
+  <si>
+    <t>36431Мупм2 Бобышка LM ADM / MEDENTiKA ICX Medentis D=11.5 мм с позиционером без внутр. резьбы (MED арт. CX 9000-R) / 2 ВИНТА, УПАК V.5</t>
+  </si>
+  <si>
+    <t>36417М Бобышка LM ADM / MEDENTiKA Mis WP (5.0/6.0) D=11.5 мм с позиционером без внутр. резьбы V.1</t>
+  </si>
+  <si>
+    <t>36449Мупм2 Бобышка LM ADM / MEDENTiKA DIO SM NP (3.8) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36416Мупм2 Бобышка LM ADM / MEDENTiKA Ankylos X D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04070211) / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36429М1упм2 Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) SP (3.75/4.2) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.2</t>
+  </si>
+  <si>
+    <t>37459МД Бобышка LM Long (собств. разр.) MegaGen AnyRidge D=10 мм с позиционером с внутр. резьбой V.1</t>
+  </si>
+  <si>
+    <t>36443Мупм2 Бобышка LM ADM / MEDENTiKA BioHorizons 3.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36989Муп2 Бобышка LM ADM / MEDENTiKA Zimmer 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, В БЛИСТЕРЕ V.1</t>
+  </si>
+  <si>
+    <t>36413Мупм2 Бобышка LM ADM / MEDENTiKA Straumann Bone Level NC (3.3) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04083311) / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36981Мопт Бобышка LM TRINITI MegaGen AnyRidge D=14 мм с позиционером с внутр. резьбой / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
+  </si>
+  <si>
+    <t>36469Муп2 Бобышка LM ADM / MEDENTiKA Bego Semados 4.1 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36450Мупм2 Бобышка LM ADM / MEDENTiKA DIO SM RP (4.5) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
     <t>36407Мупм2 Бобышка LM ADM / MEDENTiKA Xive 3.8 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. T 9005-R) / 2 ВИНТА, УПАК V.4</t>
   </si>
   <si>
-    <t>36431Мупм2 Бобышка LM ADM / MEDENTiKA ICX Medentis D=11.5 мм с позиционером без внутр. резьбы (MED арт. CX 9000-R) / 2 ВИНТА, УПАК V.5</t>
-  </si>
-  <si>
-    <t>36416Мупм2 Бобышка LM ADM / MEDENTiKA Ankylos X D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04070211) / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36417Мупм2 Бобышка LM ADM / MEDENTiKA Mis WP (5.0/6.0) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36410М Бобышка LM ADM / MEDENTiKA Astra Tech 4.5/5.0 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04034511) V.1</t>
-  </si>
-  <si>
-    <t>36474Муп2 Бобышка LM ADM / MEDENTiKA NeoBiotech 3.8 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36444Мупм2 Бобышка LM ADM / MEDENTiKA BioHorizons 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36525М Бобышка LM ZIRKONZAHN Zimmer 4.5 D=12 мм с позиционером с внутр. резьбой (арт. BSAF1182) V.1</t>
-  </si>
-  <si>
-    <t>36461Муп2 Бобышка LM ADM / MEDENTiKA MegaGen AnyOne D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36989Муп2 Бобышка LM ADM / MEDENTiKA Zimmer 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, В БЛИСТЕРЕ V.1</t>
-  </si>
-  <si>
-    <t>37473МД Бобышка LM Long (собств. разр.) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) D=10 мм с позиционером с внутр. резьбой V.1</t>
-  </si>
-  <si>
-    <t>36401Мупм2 Бобышка LM ADM / MEDENTiKA Nobel Replace Select 4.3 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
-  </si>
-  <si>
-    <t>36417М Бобышка LM ADM / MEDENTiKA Mis WP (5.0/6.0) D=11.5 мм с позиционером без внутр. резьбы V.1</t>
-  </si>
-  <si>
-    <t>36467Муп2 Бобышка LM ADM / MEDENTiKA Alpha Bio Conical Narrow D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36469Муп2 Бобышка LM ADM / MEDENTiKA Bego Semados 4.1 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36413Мупм2 Бобышка LM ADM / MEDENTiKA Straumann Bone Level NC (3.3) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04083311) / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36425Мупм2 Бобышка LM ADM / MEDENTiKA Osstem Implant Mini (3.5) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 041035) / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36429М1упм2 Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) SP (3.75/4.2) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.2</t>
-  </si>
-  <si>
-    <t>36652Муп2 Бобышка LM ADM / MEDENTiKA MegaGen MiNi D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, В БЛИСТЕРЕ V.1</t>
-  </si>
-  <si>
-    <t>36422Мупм2 Бобышка LM ADM / MEDENTiKA Bego Semados 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
-  </si>
-  <si>
-    <t>36635Муп2 Бобышка LM ARUM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=10 мм с позиционером с внутр. резьбой (арт. A090) / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>37559МД Бобышка LM Long (собств. разр.) Nobel Active NP (3.5) D=10 мм с позиционером с внутр. резьбой V.1</t>
-  </si>
-  <si>
-    <t>36451Мупм2 Бобышка LM ADM / MEDENTiKA Straumann SynOcta WN (6.5) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36400Мупм2 Бобышка LM ADM / MEDENTiKA Nobel Replace Select 3.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36449Мупм2 Бобышка LM ADM / MEDENTiKA DIO SM NP (3.8) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36450Мупм2 Бобышка LM ADM / MEDENTiKA DIO SM RP (4.5) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36443Мупм2 Бобышка LM ADM / MEDENTiKA BioHorizons 3.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+    <t>36993Муп2 Бобышка LM ARUM Straumann SynOcta RN (4.8) D=10 мм с позиционером без внутр. резьбы (арт. A101) / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36426Мупм2 Бобышка LM ADM / MEDENTiKA Osstem Implant Regular (4.0/4.5/5.0) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 410140) / 2 ВИНТА, УПА</t>
+  </si>
+  <si>
+    <t>36405Мупм2 Бобышка LM ADM / MEDENTiKA Mis SP (3.75/4.2) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04103511) / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
     <t>36406Мупм2 Бобышка LM ADM / MEDENTiKA Xive 3.4 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 40634) / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
-    <t>36405Мупм2 Бобышка LM ADM / MEDENTiKA Mis SP (3.75/4.2) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04103511) / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36426Мупм2 Бобышка LM ADM / MEDENTiKA Osstem Implant Regular (4.0/4.5/5.0) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 410140) / 2 ВИНТА, УПА</t>
-  </si>
-  <si>
-    <t>36405М1упм Бобышка LM ADM / MEDENTiKA Mis SP (3.75/4.2) D=11.5 мм с позиционером без внутр. резьбы / 1 ВИНТ В ПРОБИРКЕ, В БЛИСТЕРЕ V.2</t>
+    <t>36993М Бобышка LM ARUM Straumann SynOcta RN (4.8) D=10 мм с позиционером без внутр. резьбы (арт. A101) V.1</t>
+  </si>
+  <si>
+    <t>36402М Бобышка LM ADM / MEDENTiKA Nobel Replace Select 5.0 D=11.5 мм с позиционером без внутр. резьбы V.4</t>
   </si>
   <si>
     <t>36415Мупм2 Бобышка LM ADM / MEDENTiKA Implantium D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 40500) / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
-    <t>36993М Бобышка LM ARUM Straumann SynOcta RN (4.8) D=10 мм с позиционером без внутр. резьбы (арт. A101) V.1</t>
-  </si>
-  <si>
-    <t>36402М Бобышка LM ADM / MEDENTiKA Nobel Replace Select 5.0 D=11.5 мм с позиционером без внутр. резьбы V.4</t>
+    <t>37499MД Бобышка LM Long (собств. разр.) Implantium, Impro D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
     <t>36444М Бобышка LM ADM / MEDENTiKA BioHorizons 4.5 D=11.5 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
+    <t>36445Мупм2 Бобышка LM ADM / MEDENTiKA Biomet 3i Certain 3.4 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36408Мупм2 Бобышка LM ADM / MEDENTiKA Xive 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
+  </si>
+  <si>
+    <t>36438МV2 Бобышка LM ADM / MEDENTiKA MegaGen AnyRidge D=11.5 мм с позиционером с внутр. резьбой V.2</t>
+  </si>
+  <si>
     <t>37471МД Бобышка LM Long (собств. разр.) ICX Medentis D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
-    <t>36414Мупм Бобышка LM ADM / MEDENTiKA Straumann Bone Level RC ( 4.1/4.8) D=11.5 мм с позиционером без внутр. резьбы / 1 ВИНТ В ПРОБИРКЕ, В БЛИСТЕРЕ V.1</t>
-  </si>
-  <si>
-    <t>36438МV2 Бобышка LM ADM / MEDENTiKA MegaGen AnyRidge D=11.5 мм с позиционером с внутр. резьбой V.2</t>
-  </si>
-  <si>
-    <t>36408Мупм2 Бобышка LM ADM / MEDENTiKA Xive 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
-  </si>
-  <si>
-    <t>36413М упм Бобышка LM ADM / MEDENTiKA Straumann Bone Level NC (3.3) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04083311) / 1 ВИНТ В ПРОБИРКЕ</t>
-  </si>
-  <si>
     <t>36443М Бобышка LM ADM / MEDENTiKA BioHorizons 3.5 D=11.5 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
+    <t>36602Мопт2 Бобышка LM ARUM Astra Tech 3.5/4.0 D=10 мм с позиционером без внутр. резьбы (арт. A047) / 2 ВИНТА V.1</t>
+  </si>
+  <si>
+    <t>36401М Бобышка LM ADM / MEDENTiKA Nobel Replace Select 4.3 D=11.5 мм с позиционером без внутр. резьбы V.4</t>
+  </si>
+  <si>
     <t>36452М Бобышка LM ADM / MEDENTiKA Straumann SynOcta RN (4.8) D=11.5 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36401М Бобышка LM ADM / MEDENTiKA Nobel Replace Select 4.3 D=11.5 мм с позиционером без внутр. резьбы V.4</t>
+    <t>36608Мопт Бобышка LM ARUM Osstem Implant Regular (4.0/4.5/5.0) D=10 мм с позиционером без внутр. резьбы / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.3</t>
+  </si>
+  <si>
+    <t>36422М Бобышка LM ADM / MEDENTiKA Bego Semados 4.5 D=11.5 мм с позиционером без внутр. резьбы V.4</t>
+  </si>
+  <si>
+    <t>36430М Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) WP (5.0) D=11.5 мм с позиционером с внутр. резьбой (ADM арт. 04133711) V.4</t>
   </si>
   <si>
     <t>36429М Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) SP (3.75/4.2) D=11.5 мм с позиционером с внутр. резьбой (ADM арт. 04133711) V.1</t>
@@ -281,13 +305,13 @@
     <t>36438Мупм2 Бобышка LM ADM / MEDENTiKA MegaGen AnyRidge D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
-    <t>36422М Бобышка LM ADM / MEDENTiKA Bego Semados 4.5 D=11.5 мм с позиционером без внутр. резьбы V.4</t>
+    <t>36994Мопт Бобышка LM TRINITI Osstem Implant Mini (3.5) D=10 мм с позиционером без внутр. резьбы / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
+  </si>
+  <si>
+    <t>36603Мопт2 Бобышка LM ARUM Astra Tech 4.5/5.0 D=10 мм с позиционером без внутр. резьбы (арт. A049) / 2 ВИНТА V.1</t>
   </si>
   <si>
     <t>36440Мупм2 Бобышка LM ADM / MEDENTiKA Mis NP (3.3) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36430М Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) WP (5.0) D=11.5 мм с позиционером с внутр. резьбой (ADM арт. 04133711) V.4</t>
   </si>
   <si>
     <t>36608М Бобышка LM ARUM Osstem Implant Regular (4.0/4.5/5.0) D=10 мм с позиционером без внутр. резьбы (арт. A032) V.1</t>
@@ -774,7 +798,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -847,15 +871,15 @@
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="16">
-        <v>6399</v>
+        <v>6222</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="4">
-        <v>3431</v>
+        <v>3466</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>2968</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -865,7 +889,7 @@
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="18">
-        <v>1243</v>
+        <v>1143</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="7">
@@ -873,7 +897,7 @@
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="7">
-        <v>613</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -899,15 +923,15 @@
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="19">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="7">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="7">
-        <v>240</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -917,15 +941,15 @@
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="19">
-        <v>342</v>
+        <v>156</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="7">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="7">
-        <v>182</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -935,15 +959,15 @@
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="19">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="7">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="7">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -953,15 +977,15 @@
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="19">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="7">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="7">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -971,15 +995,15 @@
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="19">
-        <v>137</v>
+        <v>651</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="7">
-        <v>35</v>
+        <v>550</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -989,15 +1013,15 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="19">
-        <v>651</v>
+        <v>250</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="7">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1007,15 +1031,15 @@
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="19">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="7">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="7">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1025,15 +1049,15 @@
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="19">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="7">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="7">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1043,15 +1067,13 @@
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="19">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="E17" s="19"/>
-      <c r="F17" s="7">
-        <v>55</v>
-      </c>
+      <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1060,14 +1082,16 @@
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="19">
-        <v>50</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="8"/>
+      <c r="D18" s="18">
+        <v>1045</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="6">
+        <v>1000</v>
+      </c>
       <c r="G18" s="8"/>
       <c r="H18" s="7">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1076,16 +1100,16 @@
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="18">
-        <v>1045</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="6">
-        <v>1000</v>
+      <c r="D19" s="19">
+        <v>55</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="7">
+        <v>12</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="7">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1095,15 +1119,15 @@
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="19">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="7">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="7">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1113,10 +1137,12 @@
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="19">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="E21" s="19"/>
-      <c r="F21" s="8"/>
+      <c r="F21" s="7">
+        <v>70</v>
+      </c>
       <c r="G21" s="8"/>
       <c r="H21" s="7">
         <v>40</v>
@@ -1129,13 +1155,13 @@
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="19">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="7">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1161,13 +1187,13 @@
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="19">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1177,15 +1203,13 @@
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="19">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E25" s="19"/>
-      <c r="F25" s="7">
-        <v>14</v>
-      </c>
+      <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1195,13 +1219,15 @@
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="19">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E26" s="19"/>
-      <c r="F26" s="8"/>
+      <c r="F26" s="7">
+        <v>14</v>
+      </c>
       <c r="G26" s="8"/>
       <c r="H26" s="7">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1211,15 +1237,13 @@
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="19">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E27" s="19"/>
-      <c r="F27" s="7">
-        <v>10</v>
-      </c>
+      <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1229,10 +1253,12 @@
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E28" s="19"/>
-      <c r="F28" s="8"/>
+      <c r="F28" s="7">
+        <v>10</v>
+      </c>
       <c r="G28" s="8"/>
       <c r="H28" s="7">
         <v>20</v>
@@ -1245,15 +1271,13 @@
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="19">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E29" s="19"/>
-      <c r="F29" s="7">
-        <v>14</v>
-      </c>
+      <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1263,15 +1287,13 @@
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="19">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E30" s="19"/>
-      <c r="F30" s="7">
-        <v>22</v>
-      </c>
+      <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1281,11 +1303,11 @@
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="19">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="7">
@@ -1299,15 +1321,15 @@
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="19">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="7">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1317,13 +1339,15 @@
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="19">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E33" s="19"/>
-      <c r="F33" s="8"/>
+      <c r="F33" s="7">
+        <v>12</v>
+      </c>
       <c r="G33" s="8"/>
       <c r="H33" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1337,11 +1361,11 @@
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1351,15 +1375,13 @@
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="19">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="E35" s="19"/>
-      <c r="F35" s="7">
-        <v>59</v>
-      </c>
+      <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1369,13 +1391,15 @@
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="19">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E36" s="19"/>
-      <c r="F36" s="8"/>
+      <c r="F36" s="7">
+        <v>30</v>
+      </c>
       <c r="G36" s="8"/>
       <c r="H36" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1385,13 +1409,13 @@
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1401,15 +1425,15 @@
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="19">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="7">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1419,13 +1443,13 @@
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1451,12 +1475,10 @@
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="19">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E41" s="19"/>
-      <c r="F41" s="7">
-        <v>40</v>
-      </c>
+      <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="7">
         <v>10</v>
@@ -1487,10 +1509,12 @@
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="19">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E43" s="19"/>
-      <c r="F43" s="8"/>
+      <c r="F43" s="7">
+        <v>40</v>
+      </c>
       <c r="G43" s="8"/>
       <c r="H43" s="7">
         <v>10</v>
@@ -1503,12 +1527,10 @@
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="19">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E44" s="19"/>
-      <c r="F44" s="7">
-        <v>20</v>
-      </c>
+      <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="7">
         <v>10</v>
@@ -1521,12 +1543,10 @@
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="19">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E45" s="19"/>
-      <c r="F45" s="7">
-        <v>36</v>
-      </c>
+      <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="7">
         <v>10</v>
@@ -1571,10 +1591,12 @@
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E48" s="19"/>
-      <c r="F48" s="8"/>
+      <c r="F48" s="7">
+        <v>10</v>
+      </c>
       <c r="G48" s="8"/>
       <c r="H48" s="7">
         <v>10</v>
@@ -1587,10 +1609,12 @@
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="19">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E49" s="19"/>
-      <c r="F49" s="8"/>
+      <c r="F49" s="7">
+        <v>20</v>
+      </c>
       <c r="G49" s="8"/>
       <c r="H49" s="7">
         <v>10</v>
@@ -1619,11 +1643,11 @@
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="19">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="7">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="7">
@@ -1637,12 +1661,10 @@
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E52" s="19"/>
-      <c r="F52" s="7">
-        <v>15</v>
-      </c>
+      <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="7">
         <v>10</v>
@@ -1687,10 +1709,12 @@
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="19">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E55" s="19"/>
-      <c r="F55" s="8"/>
+      <c r="F55" s="7">
+        <v>4</v>
+      </c>
       <c r="G55" s="8"/>
       <c r="H55" s="7">
         <v>10</v>
@@ -1703,12 +1727,10 @@
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E56" s="19"/>
-      <c r="F56" s="7">
-        <v>10</v>
-      </c>
+      <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="7">
         <v>10</v>
@@ -1817,10 +1839,12 @@
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="19">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E63" s="19"/>
-      <c r="F63" s="8"/>
+      <c r="F63" s="7">
+        <v>15</v>
+      </c>
       <c r="G63" s="8"/>
       <c r="H63" s="7">
         <v>10</v>
@@ -1833,13 +1857,13 @@
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" s="19"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1849,13 +1873,15 @@
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="19">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E65" s="19"/>
-      <c r="F65" s="8"/>
+      <c r="F65" s="7">
+        <v>10</v>
+      </c>
       <c r="G65" s="8"/>
       <c r="H65" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1865,15 +1891,13 @@
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="19">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E66" s="19"/>
-      <c r="F66" s="7">
-        <v>20</v>
-      </c>
+      <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1883,13 +1907,13 @@
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1899,15 +1923,13 @@
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="19">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E68" s="19"/>
-      <c r="F68" s="7">
-        <v>35</v>
-      </c>
+      <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1917,13 +1939,15 @@
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="19">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E69" s="19"/>
-      <c r="F69" s="8"/>
+      <c r="F69" s="7">
+        <v>20</v>
+      </c>
       <c r="G69" s="8"/>
       <c r="H69" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1933,15 +1957,13 @@
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E70" s="19"/>
-      <c r="F70" s="7">
-        <v>5</v>
-      </c>
+      <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1951,13 +1973,13 @@
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="19">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E71" s="19"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1967,15 +1989,13 @@
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E72" s="19"/>
-      <c r="F72" s="7">
-        <v>5</v>
-      </c>
+      <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1985,13 +2005,15 @@
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="19">
+        <v>12</v>
+      </c>
+      <c r="E73" s="19"/>
+      <c r="F73" s="7">
         <v>5</v>
       </c>
-      <c r="E73" s="19"/>
-      <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2001,15 +2023,15 @@
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="19">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="E74" s="19"/>
       <c r="F74" s="7">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="G74" s="8"/>
       <c r="H74" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2019,13 +2041,13 @@
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E75" s="19"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2035,13 +2057,13 @@
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E76" s="19"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2051,13 +2073,13 @@
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E77" s="19"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2067,15 +2089,13 @@
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E78" s="19"/>
-      <c r="F78" s="7">
-        <v>3</v>
-      </c>
+      <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2085,13 +2105,15 @@
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="19">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="E79" s="19"/>
-      <c r="F79" s="8"/>
+      <c r="F79" s="7">
+        <v>80</v>
+      </c>
       <c r="G79" s="8"/>
       <c r="H79" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2101,13 +2123,15 @@
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="19">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E80" s="19"/>
-      <c r="F80" s="8"/>
+      <c r="F80" s="7">
+        <v>5</v>
+      </c>
       <c r="G80" s="8"/>
       <c r="H80" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2117,13 +2141,13 @@
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
       <c r="D81" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E81" s="19"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2133,13 +2157,13 @@
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E82" s="19"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2149,13 +2173,13 @@
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E83" s="19"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2165,15 +2189,15 @@
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="19">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="E84" s="19"/>
       <c r="F84" s="7">
-        <v>130</v>
+        <v>3</v>
       </c>
       <c r="G84" s="8"/>
       <c r="H84" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2183,35 +2207,179 @@
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E85" s="19"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="19">
+        <v>2</v>
+      </c>
+      <c r="E86" s="19"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="19">
+        <v>132</v>
+      </c>
+      <c r="E87" s="19"/>
+      <c r="F87" s="7">
+        <v>130</v>
+      </c>
+      <c r="G87" s="8"/>
+      <c r="H87" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="19">
+        <v>2</v>
+      </c>
+      <c r="E88" s="19"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="19">
+        <v>2</v>
+      </c>
+      <c r="E89" s="19"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="19">
+        <v>2</v>
+      </c>
+      <c r="E90" s="19"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="19">
+        <v>2</v>
+      </c>
+      <c r="E91" s="19"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="19">
+        <v>2</v>
+      </c>
+      <c r="E92" s="19"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="14" t="s">
+      <c r="E93" s="19"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="20">
-        <v>6399</v>
-      </c>
-      <c r="E86" s="20"/>
-      <c r="F86" s="9">
-        <v>3431</v>
-      </c>
-      <c r="G86" s="10"/>
-      <c r="H86" s="9">
-        <v>2968</v>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="20">
+        <v>6222</v>
+      </c>
+      <c r="E94" s="20"/>
+      <c r="F94" s="9">
+        <v>3466</v>
+      </c>
+      <c r="G94" s="10"/>
+      <c r="H94" s="9">
+        <v>2756</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="183">
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="D92:E92"/>
     <mergeCell ref="A83:C83"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="A84:C84"/>
@@ -2220,6 +2388,8 @@
     <mergeCell ref="D85:E85"/>
     <mergeCell ref="A86:C86"/>
     <mergeCell ref="D86:E86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="D87:E87"/>
     <mergeCell ref="A78:C78"/>
     <mergeCell ref="D78:E78"/>
     <mergeCell ref="A79:C79"/>

--- a/input_data/blanks/blanks_unsh.xlsx
+++ b/input_data/blanks/blanks_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_31/blanks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_07/blanks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F761DE2A-5CB4-EE46-99BA-EFC488CA7948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4B3772-747C-7B48-9893-0B784BA7CBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
   <si>
     <t>Отбор:</t>
   </si>
@@ -86,162 +86,165 @@
     <t>36411М Бобышка LM ADM / MEDENTiKA Astra Tech 3.5/4.0 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 040335) V.1</t>
   </si>
   <si>
+    <t>36608М1упм Бобышка LM ARUM Osstem Implant Regular (4.0/4.5/5.0) D=10 мм с позиционером без внутр. резьбы / 1 ВИНТ В ПРОБИРКЕ, В БЛИСТЕРЕ V.3</t>
+  </si>
+  <si>
+    <t>36607М1упм Бобышка LM ARUM Osstem Implant Mini (3.5) D=10 мм с позиционером без внутр. резьбы / 1 ВИНТ В ПРОБИРКЕ, В БЛИСТЕРЕ V.3</t>
+  </si>
+  <si>
     <t>36452М Бобышка LM ADM / MEDENTiKA Straumann SynOcta RN (4.8) D=11.5 мм с позиционером без внутр. резьбы V.2</t>
   </si>
   <si>
+    <t>36706Тупм Бобышка LM ARUM Implantium D=10 мм с позиционером без внутр. резьбы (арт. A005) / 1 ВИНТ В ПРОБИРКЕ, В БЛИСТЕРЕ V.1</t>
+  </si>
+  <si>
     <t>36412М  Бобышка LM ADM / MEDENTiKA ICX Medentis D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04140011) V.1</t>
   </si>
   <si>
     <t>36441М Бобышка LM ADM / MEDENTiKA Anthogyr Axiom D=11.5 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36425Муп2 Бобышка LM ADM / MEDENTiKA Osstem Implant Mini (3.5) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.2</t>
-  </si>
-  <si>
     <t>36426М Бобышка LM ADM / MEDENTiKA Osstem Implant Regular (4.0/4.5/5.0) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 410140) V.1</t>
   </si>
   <si>
     <t>36452Мупм2 Бобышка LM ADM / MEDENTiKA Straumann SynOcta RN (4.8) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
-    <t>36966МД Бобышка LM ADM / MEDENTiKA Liko-M D=11.5 мм с позиционером с внутр. резьбой V.1</t>
-  </si>
-  <si>
-    <t>36441Муп2 Бобышка LM ADM / MEDENTiKA Anthogyr Axiom D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
     <t>36438М Бобышка LM ADM / MEDENTiKA MegaGen AnyRidge D=11.5 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
+    <t>36436М Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) NP (3.3) D=11.5 мм с позиционером с внутр. резьбой V.1</t>
+  </si>
+  <si>
     <t>36407М Бобышка LM ADM / MEDENTiKA Xive 3.8 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. T 9005-R) V.4</t>
   </si>
   <si>
+    <t>36422М Бобышка LM ADM / MEDENTiKA Bego Semados 4.5 D=11.5 мм с позиционером без внутр. резьбы V.4</t>
+  </si>
+  <si>
     <t>36469М Бобышка LM ADM / MEDENTiKA Bego Semados 4.1 D=11.5 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
+    <t>36614М Бобышка LM ARUM Mis SP (3.75/4.2) D=10 мм с позиционером с внутр. резьбой (арт. А187) V.1</t>
+  </si>
+  <si>
+    <t>36432М Бобышка LM ADM / MEDENTiKA BoneTrust Conical 3.4 / 4.0 D=11.5 мм с позиционером без внутр. резьбы V.1</t>
+  </si>
+  <si>
+    <t>36439М Бобышка LM ADM / MEDENTiKA Bego Semados 3.25/3.75 D=11.5 мм с позиционером без внутр. резьбы V.4</t>
+  </si>
+  <si>
     <t>36416МС Бобышка LM ADM / MEDENTiKA Ankylos C D=11.5 мм без позиционера без внутр. резьбы (ADM арт. 040700) V.1</t>
   </si>
   <si>
-    <t>36984Мопт Бобышка LM TRINITI MegaGen MiNi D=10 мм с позиционером без внутр. резьбы / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
-  </si>
-  <si>
-    <t>36432М Бобышка LM ADM / MEDENTiKA BoneTrust Conical 3.4 / 4.0 D=11.5 мм с позиционером без внутр. резьбы V.1</t>
-  </si>
-  <si>
     <t>36406М Бобышка LM ADM / MEDENTiKA Xive 3.4 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 40634) V.1</t>
   </si>
   <si>
     <t>36408М Бобышка LM ADM / MEDENTiKA Xive 4.5 D=11.5 мм с позиционером без внутр. резьбы V.4</t>
   </si>
   <si>
-    <t>36436М Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) NP (3.3) D=11.5 мм с позиционером с внутр. резьбой V.1</t>
+    <t>36420М Бобышка LM ADM / MEDENTiKA Nobel Active NP (3.5) D=11.5 мм с позиционером без внутр. резьбы (MED арт. F9000-R) V.1</t>
+  </si>
+  <si>
+    <t>36605Мупм Бобышка LM ARUM Mis C1 (Conical) SP (3.75/4.2) D=10 мм с позиционером с внутр. резьбой (арт. A184) / 1 ВИНТ В ПРОБИРКЕ, В БЛИСТЕРЕ V.1</t>
+  </si>
+  <si>
+    <t>36614Мупм Бобышка LM ARUM Mis SP (3.75/4.2) D=10 мм с позиционером с внутр. резьбой (арт. А187) / 1 ВИНТ В ПРОБИРКЕ, В БЛИСТЕРЕ V.1</t>
   </si>
   <si>
     <t>36405Муп2 Бобышка LM ADM / MEDENTiKA Mis SP (3.75/4.2) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.2</t>
   </si>
   <si>
-    <t>36420М Бобышка LM ADM / MEDENTiKA Nobel Active NP (3.5) D=11.5 мм с позиционером без внутр. резьбы (MED арт. F9000-R) V.1</t>
-  </si>
-  <si>
     <t>36414Мупм2 Бобышка LM ADM / MEDENTiKA Straumann Bone Level RC ( 4.1/4.8) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
+    <t>36608М Бобышка LM ARUM Osstem Implant Regular (4.0/4.5/5.0) D=10 мм с позиционером без внутр. резьбы V.3</t>
+  </si>
+  <si>
+    <t>36436Мупм2 Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) NP (3.3) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36474Муп2 Бобышка LM ADM / MEDENTiKA NeoBiotech 3.8 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36444Мупм2 Бобышка LM ADM / MEDENTiKA BioHorizons 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36525М Бобышка LM ZIRKONZAHN Zimmer 4.5 D=12 мм с позиционером с внутр. резьбой (арт. BSAF1182) V.1</t>
+  </si>
+  <si>
+    <t>36410М Бобышка LM ADM / MEDENTiKA Astra Tech 4.5/5.0 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04034511) V.1</t>
+  </si>
+  <si>
+    <t>36417Мупм2 Бобышка LM ADM / MEDENTiKA Mis WP (5.0/6.0) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36461Муп2 Бобышка LM ADM / MEDENTiKA MegaGen AnyOne D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36469Муп2 Бобышка LM ADM / MEDENTiKA Bego Semados 4.1 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36989Муп2 Бобышка LM ADM / MEDENTiKA Zimmer 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, В БЛИСТЕРЕ V.1</t>
+  </si>
+  <si>
+    <t>36407Мупм2 Бобышка LM ADM / MEDENTiKA Xive 3.8 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. T 9005-R) / 2 ВИНТА, УПАК V.4</t>
+  </si>
+  <si>
+    <t>36401Мупм2 Бобышка LM ADM / MEDENTiKA Nobel Replace Select 4.3 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
+  </si>
+  <si>
+    <t>36417М Бобышка LM ADM / MEDENTiKA Mis WP (5.0/6.0) D=11.5 мм с позиционером без внутр. резьбы V.1</t>
+  </si>
+  <si>
+    <t>36413Мупм2 Бобышка LM ADM / MEDENTiKA Straumann Bone Level NC (3.3) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04083311) / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36429М1упм2 Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) SP (3.75/4.2) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.2</t>
+  </si>
+  <si>
+    <t>36652Муп2 Бобышка LM ADM / MEDENTiKA MegaGen MiNi D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, В БЛИСТЕРЕ V.1</t>
+  </si>
+  <si>
+    <t>36422Мупм2 Бобышка LM ADM / MEDENTiKA Bego Semados 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
+  </si>
+  <si>
+    <t>36635Муп2 Бобышка LM ARUM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=10 мм с позиционером с внутр. резьбой (арт. A090) / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>37559МД Бобышка LM Long (собств. разр.) Nobel Active NP (3.5) D=10 мм с позиционером с внутр. резьбой V.1</t>
+  </si>
+  <si>
+    <t>36451Мупм2 Бобышка LM ADM / MEDENTiKA Straumann SynOcta WN (6.5) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36449Мупм2 Бобышка LM ADM / MEDENTiKA DIO SM NP (3.8) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36450Мупм2 Бобышка LM ADM / MEDENTiKA DIO SM RP (4.5) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
     <t>36400Мупм2 Бобышка LM ADM / MEDENTiKA Nobel Replace Select 3.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
-    <t>36608М Бобышка LM ARUM Osstem Implant Regular (4.0/4.5/5.0) D=10 мм с позиционером без внутр. резьбы V.3</t>
-  </si>
-  <si>
-    <t>36436Мупм2 Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) NP (3.3) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36635Муп2 Бобышка LM ARUM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=10 мм с позиционером с внутр. резьбой (арт. A090) / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
     <t>36425Мупм2 Бобышка LM ADM / MEDENTiKA Osstem Implant Mini (3.5) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 041035) / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
-    <t>36474Муп2 Бобышка LM ADM / MEDENTiKA NeoBiotech 3.8 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36410М Бобышка LM ADM / MEDENTiKA Astra Tech 4.5/5.0 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04034511) V.1</t>
-  </si>
-  <si>
-    <t>36444Мупм2 Бобышка LM ADM / MEDENTiKA BioHorizons 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36417Мупм2 Бобышка LM ADM / MEDENTiKA Mis WP (5.0/6.0) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+    <t>37473МД Бобышка LM Long (собств. разр.) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) D=10 мм с позиционером с внутр. резьбой V.1</t>
+  </si>
+  <si>
+    <t>36431Мупм2 Бобышка LM ADM / MEDENTiKA ICX Medentis D=11.5 мм с позиционером без внутр. резьбы (MED арт. CX 9000-R) / 2 ВИНТА, УПАК V.5</t>
+  </si>
+  <si>
+    <t>36443Мупм2 Бобышка LM ADM / MEDENTiKA BioHorizons 3.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
     <t>36467Муп2 Бобышка LM ADM / MEDENTiKA Alpha Bio Conical Narrow D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
-    <t>37559МД Бобышка LM Long (собств. разр.) Nobel Active NP (3.5) D=10 мм с позиционером с внутр. резьбой V.1</t>
-  </si>
-  <si>
-    <t>36422Мупм2 Бобышка LM ADM / MEDENTiKA Bego Semados 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
-  </si>
-  <si>
-    <t>36525М Бобышка LM ZIRKONZAHN Zimmer 4.5 D=12 мм с позиционером с внутр. резьбой (арт. BSAF1182) V.1</t>
-  </si>
-  <si>
-    <t>37473МД Бобышка LM Long (собств. разр.) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) D=10 мм с позиционером с внутр. резьбой V.1</t>
-  </si>
-  <si>
-    <t>36461Муп2 Бобышка LM ADM / MEDENTiKA MegaGen AnyOne D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36652Муп2 Бобышка LM ADM / MEDENTiKA MegaGen MiNi D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, В БЛИСТЕРЕ V.1</t>
-  </si>
-  <si>
-    <t>36451Мупм2 Бобышка LM ADM / MEDENTiKA Straumann SynOcta WN (6.5) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36401Мупм2 Бобышка LM ADM / MEDENTiKA Nobel Replace Select 4.3 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
-  </si>
-  <si>
-    <t>36431Мупм2 Бобышка LM ADM / MEDENTiKA ICX Medentis D=11.5 мм с позиционером без внутр. резьбы (MED арт. CX 9000-R) / 2 ВИНТА, УПАК V.5</t>
-  </si>
-  <si>
-    <t>36417М Бобышка LM ADM / MEDENTiKA Mis WP (5.0/6.0) D=11.5 мм с позиционером без внутр. резьбы V.1</t>
-  </si>
-  <si>
-    <t>36449Мупм2 Бобышка LM ADM / MEDENTiKA DIO SM NP (3.8) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
     <t>36416Мупм2 Бобышка LM ADM / MEDENTiKA Ankylos X D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04070211) / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
-    <t>36429М1упм2 Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) SP (3.75/4.2) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.2</t>
-  </si>
-  <si>
-    <t>37459МД Бобышка LM Long (собств. разр.) MegaGen AnyRidge D=10 мм с позиционером с внутр. резьбой V.1</t>
-  </si>
-  <si>
-    <t>36443Мупм2 Бобышка LM ADM / MEDENTiKA BioHorizons 3.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36989Муп2 Бобышка LM ADM / MEDENTiKA Zimmer 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, В БЛИСТЕРЕ V.1</t>
-  </si>
-  <si>
-    <t>36413Мупм2 Бобышка LM ADM / MEDENTiKA Straumann Bone Level NC (3.3) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04083311) / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36981Мопт Бобышка LM TRINITI MegaGen AnyRidge D=14 мм с позиционером с внутр. резьбой / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
-  </si>
-  <si>
-    <t>36469Муп2 Бобышка LM ADM / MEDENTiKA Bego Semados 4.1 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36450Мупм2 Бобышка LM ADM / MEDENTiKA DIO SM RP (4.5) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36407Мупм2 Бобышка LM ADM / MEDENTiKA Xive 3.8 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. T 9005-R) / 2 ВИНТА, УПАК V.4</t>
-  </si>
-  <si>
-    <t>36993Муп2 Бобышка LM ARUM Straumann SynOcta RN (4.8) D=10 мм с позиционером без внутр. резьбы (арт. A101) / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
     <t>36426Мупм2 Бобышка LM ADM / MEDENTiKA Osstem Implant Regular (4.0/4.5/5.0) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 410140) / 2 ВИНТА, УПА</t>
   </si>
   <si>
@@ -251,67 +254,52 @@
     <t>36406Мупм2 Бобышка LM ADM / MEDENTiKA Xive 3.4 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 40634) / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
+    <t>36402М Бобышка LM ADM / MEDENTiKA Nobel Replace Select 5.0 D=11.5 мм с позиционером без внутр. резьбы V.4</t>
+  </si>
+  <si>
+    <t>36415Мупм2 Бобышка LM ADM / MEDENTiKA Implantium D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 40500) / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
     <t>36993М Бобышка LM ARUM Straumann SynOcta RN (4.8) D=10 мм с позиционером без внутр. резьбы (арт. A101) V.1</t>
   </si>
   <si>
-    <t>36402М Бобышка LM ADM / MEDENTiKA Nobel Replace Select 5.0 D=11.5 мм с позиционером без внутр. резьбы V.4</t>
-  </si>
-  <si>
-    <t>36415Мупм2 Бобышка LM ADM / MEDENTiKA Implantium D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 40500) / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>37499MД Бобышка LM Long (собств. разр.) Implantium, Impro D=10 мм с позиционером без внутр. резьбы V.1</t>
-  </si>
-  <si>
     <t>36444М Бобышка LM ADM / MEDENTiKA BioHorizons 4.5 D=11.5 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36445Мупм2 Бобышка LM ADM / MEDENTiKA Biomet 3i Certain 3.4 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+    <t>36438МV2 Бобышка LM ADM / MEDENTiKA MegaGen AnyRidge D=11.5 мм с позиционером с внутр. резьбой V.2</t>
   </si>
   <si>
     <t>36408Мупм2 Бобышка LM ADM / MEDENTiKA Xive 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
   </si>
   <si>
-    <t>36438МV2 Бобышка LM ADM / MEDENTiKA MegaGen AnyRidge D=11.5 мм с позиционером с внутр. резьбой V.2</t>
-  </si>
-  <si>
     <t>37471МД Бобышка LM Long (собств. разр.) ICX Medentis D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
     <t>36443М Бобышка LM ADM / MEDENTiKA BioHorizons 3.5 D=11.5 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36602Мопт2 Бобышка LM ARUM Astra Tech 3.5/4.0 D=10 мм с позиционером без внутр. резьбы (арт. A047) / 2 ВИНТА V.1</t>
+    <t>36452М Бобышка LM ADM / MEDENTiKA Straumann SynOcta RN (4.8) D=11.5 мм с позиционером без внутр. резьбы V.1</t>
+  </si>
+  <si>
+    <t>36608Мопт Бобышка LM ARUM Osstem Implant Regular (4.0/4.5/5.0) D=10 мм с позиционером без внутр. резьбы / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.3</t>
   </si>
   <si>
     <t>36401М Бобышка LM ADM / MEDENTiKA Nobel Replace Select 4.3 D=11.5 мм с позиционером без внутр. резьбы V.4</t>
   </si>
   <si>
-    <t>36452М Бобышка LM ADM / MEDENTiKA Straumann SynOcta RN (4.8) D=11.5 мм с позиционером без внутр. резьбы V.1</t>
-  </si>
-  <si>
-    <t>36608Мопт Бобышка LM ARUM Osstem Implant Regular (4.0/4.5/5.0) D=10 мм с позиционером без внутр. резьбы / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.3</t>
-  </si>
-  <si>
-    <t>36422М Бобышка LM ADM / MEDENTiKA Bego Semados 4.5 D=11.5 мм с позиционером без внутр. резьбы V.4</t>
+    <t>36994Мопт Бобышка LM TRINITI Osstem Implant Mini (3.5) D=10 мм с позиционером без внутр. резьбы / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
+  </si>
+  <si>
+    <t>36429М Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) SP (3.75/4.2) D=11.5 мм с позиционером с внутр. резьбой (ADM арт. 04133711) V.1</t>
+  </si>
+  <si>
+    <t>36438Мупм2 Бобышка LM ADM / MEDENTiKA MegaGen AnyRidge D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36440Мупм2 Бобышка LM ADM / MEDENTiKA Mis NP (3.3) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
     <t>36430М Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) WP (5.0) D=11.5 мм с позиционером с внутр. резьбой (ADM арт. 04133711) V.4</t>
-  </si>
-  <si>
-    <t>36429М Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) SP (3.75/4.2) D=11.5 мм с позиционером с внутр. резьбой (ADM арт. 04133711) V.1</t>
-  </si>
-  <si>
-    <t>36438Мупм2 Бобышка LM ADM / MEDENTiKA MegaGen AnyRidge D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36994Мопт Бобышка LM TRINITI Osstem Implant Mini (3.5) D=10 мм с позиционером без внутр. резьбы / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
-  </si>
-  <si>
-    <t>36603Мопт2 Бобышка LM ARUM Astra Tech 4.5/5.0 D=10 мм с позиционером без внутр. резьбы (арт. A049) / 2 ВИНТА V.1</t>
-  </si>
-  <si>
-    <t>36440Мупм2 Бобышка LM ADM / MEDENTiKA Mis NP (3.3) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
     <t>36608М Бобышка LM ARUM Osstem Implant Regular (4.0/4.5/5.0) D=10 мм с позиционером без внутр. резьбы (арт. A032) V.1</t>
@@ -798,7 +786,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -871,15 +859,15 @@
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="16">
-        <v>6222</v>
+        <v>6389</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="4">
-        <v>3466</v>
+        <v>3551</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>2756</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1082,16 +1070,14 @@
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="18">
-        <v>1045</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="6">
-        <v>1000</v>
-      </c>
+      <c r="D18" s="19">
+        <v>50</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="7">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1101,15 +1087,13 @@
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="19">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E19" s="19"/>
-      <c r="F19" s="7">
-        <v>12</v>
-      </c>
+      <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1119,15 +1103,13 @@
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="19">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E20" s="19"/>
-      <c r="F20" s="7">
-        <v>35</v>
-      </c>
+      <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="7">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1136,16 +1118,16 @@
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="19">
-        <v>110</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="7">
-        <v>70</v>
+      <c r="D21" s="18">
+        <v>1045</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="6">
+        <v>1000</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="7">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1155,13 +1137,15 @@
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="19">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E22" s="19"/>
-      <c r="F22" s="8"/>
+      <c r="F22" s="7">
+        <v>12</v>
+      </c>
       <c r="G22" s="8"/>
       <c r="H22" s="7">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1171,13 +1155,15 @@
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="19">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="E23" s="19"/>
-      <c r="F23" s="8"/>
+      <c r="F23" s="7">
+        <v>70</v>
+      </c>
       <c r="G23" s="8"/>
       <c r="H23" s="7">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1187,13 +1173,13 @@
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="19">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="7">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1223,11 +1209,11 @@
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1237,13 +1223,15 @@
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="19">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E27" s="19"/>
-      <c r="F27" s="8"/>
+      <c r="F27" s="7">
+        <v>14</v>
+      </c>
       <c r="G27" s="8"/>
       <c r="H27" s="7">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1253,15 +1241,13 @@
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="19">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E28" s="19"/>
-      <c r="F28" s="7">
-        <v>10</v>
-      </c>
+      <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1271,13 +1257,13 @@
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1287,10 +1273,12 @@
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="19">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="E30" s="19"/>
-      <c r="F30" s="8"/>
+      <c r="F30" s="7">
+        <v>100</v>
+      </c>
       <c r="G30" s="8"/>
       <c r="H30" s="7">
         <v>20</v>
@@ -1303,15 +1291,13 @@
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="19">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E31" s="19"/>
-      <c r="F31" s="7">
-        <v>14</v>
-      </c>
+      <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1325,11 +1311,11 @@
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1343,11 +1329,11 @@
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1357,15 +1343,15 @@
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="19">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="7">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1375,13 +1361,15 @@
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="19">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E35" s="19"/>
-      <c r="F35" s="8"/>
+      <c r="F35" s="7">
+        <v>22</v>
+      </c>
       <c r="G35" s="8"/>
       <c r="H35" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1391,15 +1379,13 @@
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="19">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E36" s="19"/>
-      <c r="F36" s="7">
-        <v>30</v>
-      </c>
+      <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1409,13 +1395,13 @@
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="19">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1425,15 +1411,13 @@
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="19">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="E38" s="19"/>
-      <c r="F38" s="7">
-        <v>59</v>
-      </c>
+      <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1443,13 +1427,15 @@
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="19">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E39" s="19"/>
-      <c r="F39" s="8"/>
+      <c r="F39" s="7">
+        <v>29</v>
+      </c>
       <c r="G39" s="8"/>
       <c r="H39" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1459,13 +1445,15 @@
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="19">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E40" s="19"/>
-      <c r="F40" s="8"/>
+      <c r="F40" s="7">
+        <v>30</v>
+      </c>
       <c r="G40" s="8"/>
       <c r="H40" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1475,13 +1463,15 @@
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="19">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E41" s="19"/>
-      <c r="F41" s="8"/>
+      <c r="F41" s="7">
+        <v>59</v>
+      </c>
       <c r="G41" s="8"/>
       <c r="H41" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1491,15 +1481,13 @@
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="19">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="E42" s="19"/>
-      <c r="F42" s="7">
-        <v>40</v>
-      </c>
+      <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1543,10 +1531,12 @@
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="19">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E45" s="19"/>
-      <c r="F45" s="8"/>
+      <c r="F45" s="7">
+        <v>20</v>
+      </c>
       <c r="G45" s="8"/>
       <c r="H45" s="7">
         <v>10</v>
@@ -1559,10 +1549,12 @@
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="19">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E46" s="19"/>
-      <c r="F46" s="8"/>
+      <c r="F46" s="7">
+        <v>40</v>
+      </c>
       <c r="G46" s="8"/>
       <c r="H46" s="7">
         <v>10</v>
@@ -1591,11 +1583,11 @@
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="19">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="7">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="7">
@@ -1609,11 +1601,11 @@
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="7">
@@ -1643,12 +1635,10 @@
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="19">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E51" s="19"/>
-      <c r="F51" s="7">
-        <v>36</v>
-      </c>
+      <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="7">
         <v>10</v>
@@ -1693,10 +1683,12 @@
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="19">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E54" s="19"/>
-      <c r="F54" s="8"/>
+      <c r="F54" s="7">
+        <v>15</v>
+      </c>
       <c r="G54" s="8"/>
       <c r="H54" s="7">
         <v>10</v>
@@ -1709,12 +1701,10 @@
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="19">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E55" s="19"/>
-      <c r="F55" s="7">
-        <v>4</v>
-      </c>
+      <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="7">
         <v>10</v>
@@ -1743,10 +1733,12 @@
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E57" s="19"/>
-      <c r="F57" s="8"/>
+      <c r="F57" s="7">
+        <v>10</v>
+      </c>
       <c r="G57" s="8"/>
       <c r="H57" s="7">
         <v>10</v>
@@ -1839,12 +1831,10 @@
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E63" s="19"/>
-      <c r="F63" s="7">
-        <v>15</v>
-      </c>
+      <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="7">
         <v>10</v>
@@ -1873,12 +1863,10 @@
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E65" s="19"/>
-      <c r="F65" s="7">
-        <v>10</v>
-      </c>
+      <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="7">
         <v>10</v>
@@ -1891,10 +1879,12 @@
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="19">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E66" s="19"/>
-      <c r="F66" s="8"/>
+      <c r="F66" s="7">
+        <v>4</v>
+      </c>
       <c r="G66" s="8"/>
       <c r="H66" s="7">
         <v>10</v>
@@ -1939,15 +1929,13 @@
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="19">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E69" s="19"/>
-      <c r="F69" s="7">
-        <v>20</v>
-      </c>
+      <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1957,10 +1945,12 @@
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="19">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E70" s="19"/>
-      <c r="F70" s="8"/>
+      <c r="F70" s="7">
+        <v>20</v>
+      </c>
       <c r="G70" s="8"/>
       <c r="H70" s="7">
         <v>9</v>
@@ -1989,13 +1979,13 @@
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E72" s="19"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2041,13 +2031,13 @@
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E75" s="19"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2073,10 +2063,12 @@
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="19">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="E77" s="19"/>
-      <c r="F77" s="8"/>
+      <c r="F77" s="7">
+        <v>80</v>
+      </c>
       <c r="G77" s="8"/>
       <c r="H77" s="7">
         <v>5</v>
@@ -2105,11 +2097,11 @@
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="19">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="E79" s="19"/>
       <c r="F79" s="7">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="7">
@@ -2123,15 +2115,13 @@
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="19">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E80" s="19"/>
-      <c r="F80" s="7">
-        <v>5</v>
-      </c>
+      <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2141,13 +2131,15 @@
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
       <c r="D81" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E81" s="19"/>
-      <c r="F81" s="8"/>
+      <c r="F81" s="7">
+        <v>3</v>
+      </c>
       <c r="G81" s="8"/>
       <c r="H81" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2189,15 +2181,13 @@
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E84" s="19"/>
-      <c r="F84" s="7">
-        <v>3</v>
-      </c>
+      <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2207,13 +2197,13 @@
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E85" s="19"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2239,12 +2229,10 @@
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="19">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="E87" s="19"/>
-      <c r="F87" s="7">
-        <v>130</v>
-      </c>
+      <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="7">
         <v>2</v>
@@ -2257,10 +2245,12 @@
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="19">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="E88" s="19"/>
-      <c r="F88" s="8"/>
+      <c r="F88" s="7">
+        <v>130</v>
+      </c>
       <c r="G88" s="8"/>
       <c r="H88" s="7">
         <v>2</v>
@@ -2273,113 +2263,41 @@
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
       <c r="D89" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E89" s="19"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="19">
-        <v>2</v>
-      </c>
-      <c r="E90" s="19"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="19">
-        <v>2</v>
-      </c>
-      <c r="E91" s="19"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="19">
-        <v>2</v>
-      </c>
-      <c r="E92" s="19"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="19">
         <v>1</v>
       </c>
-      <c r="E93" s="19"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="14" t="s">
+    </row>
+    <row r="90" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="20">
-        <v>6222</v>
-      </c>
-      <c r="E94" s="20"/>
-      <c r="F94" s="9">
-        <v>3466</v>
-      </c>
-      <c r="G94" s="10"/>
-      <c r="H94" s="9">
-        <v>2756</v>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="20">
+        <v>6389</v>
+      </c>
+      <c r="E90" s="20"/>
+      <c r="F90" s="9">
+        <v>3551</v>
+      </c>
+      <c r="G90" s="10"/>
+      <c r="H90" s="9">
+        <v>2838</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="183">
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="D94:E94"/>
+  <mergeCells count="175">
     <mergeCell ref="A88:C88"/>
     <mergeCell ref="D88:E88"/>
     <mergeCell ref="A89:C89"/>
     <mergeCell ref="D89:E89"/>
     <mergeCell ref="A90:C90"/>
     <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="D92:E92"/>
     <mergeCell ref="A83:C83"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="A84:C84"/>

--- a/input_data/blanks/blanks_unsh.xlsx
+++ b/input_data/blanks/blanks_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_07/blanks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_14/blanks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4B3772-747C-7B48-9893-0B784BA7CBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80F54BB-476C-7243-9A39-2511E36439DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,6 +65,9 @@
     <t>36463М Бобышка LM ADM / MEDENTiKA Alpha Bio Internal D=11.5 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
+    <t>36706Т Бобышка LM ARUM Implantium D=10 мм с позиционером без внутр. резьбы (арт. A005) V.1</t>
+  </si>
+  <si>
     <t>36405М Бобышка LM ADM / MEDENTiKA Mis SP (3.75/4.2) D=11.5 мм с позиционером без внутр. резьбы V.2</t>
   </si>
   <si>
@@ -77,27 +80,15 @@
     <t>36405М Бобышка LM ADM / MEDENTiKA Mis SP (3.75/4.2) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04103511) V.1</t>
   </si>
   <si>
-    <t>36706Т Бобышка LM ARUM Implantium D=10 мм с позиционером без внутр. резьбы (арт. A005) V.1</t>
-  </si>
-  <si>
     <t>36467М Бобышка LM ADM / MEDENTiKA Alpha Bio Conical Narrow D=11.5 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
     <t>36411М Бобышка LM ADM / MEDENTiKA Astra Tech 3.5/4.0 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 040335) V.1</t>
   </si>
   <si>
-    <t>36608М1упм Бобышка LM ARUM Osstem Implant Regular (4.0/4.5/5.0) D=10 мм с позиционером без внутр. резьбы / 1 ВИНТ В ПРОБИРКЕ, В БЛИСТЕРЕ V.3</t>
-  </si>
-  <si>
-    <t>36607М1упм Бобышка LM ARUM Osstem Implant Mini (3.5) D=10 мм с позиционером без внутр. резьбы / 1 ВИНТ В ПРОБИРКЕ, В БЛИСТЕРЕ V.3</t>
-  </si>
-  <si>
     <t>36452М Бобышка LM ADM / MEDENTiKA Straumann SynOcta RN (4.8) D=11.5 мм с позиционером без внутр. резьбы V.2</t>
   </si>
   <si>
-    <t>36706Тупм Бобышка LM ARUM Implantium D=10 мм с позиционером без внутр. резьбы (арт. A005) / 1 ВИНТ В ПРОБИРКЕ, В БЛИСТЕРЕ V.1</t>
-  </si>
-  <si>
     <t>36412М  Бобышка LM ADM / MEDENTiKA ICX Medentis D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04140011) V.1</t>
   </si>
   <si>
@@ -107,195 +98,201 @@
     <t>36426М Бобышка LM ADM / MEDENTiKA Osstem Implant Regular (4.0/4.5/5.0) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 410140) V.1</t>
   </si>
   <si>
+    <t>36609М Бобышка LM ARUM Alpha Bio Internal D=10 мм с позиционером с внутр. резьбой (арт. А169) V.1</t>
+  </si>
+  <si>
+    <t>36436М Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) NP (3.3) D=11.5 мм с позиционером с внутр. резьбой V.1</t>
+  </si>
+  <si>
+    <t>36438М Бобышка LM ADM / MEDENTiKA MegaGen AnyRidge D=11.5 мм с позиционером с внутр. резьбой V.1</t>
+  </si>
+  <si>
+    <t>36407М Бобышка LM ADM / MEDENTiKA Xive 3.8 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. T 9005-R) V.4</t>
+  </si>
+  <si>
+    <t>36617М1упм Бобышка LM ARUM MegaGen AnyRidge D=10 мм с позиционером с внутр. резьбой / 1 ВИНТ В ПРОБИРКЕ, В БЛИСТЕРЕ V.3</t>
+  </si>
+  <si>
+    <t>36469М Бобышка LM ADM / MEDENTiKA Bego Semados 4.1 D=11.5 мм с позиционером без внутр. резьбы V.1</t>
+  </si>
+  <si>
+    <t>36410М Бобышка LM ADM / MEDENTiKA Astra Tech 4.5/5.0 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04034511) V.1</t>
+  </si>
+  <si>
+    <t>36416МС Бобышка LM ADM / MEDENTiKA Ankylos C D=11.5 мм без позиционера без внутр. резьбы (ADM арт. 040700) V.1</t>
+  </si>
+  <si>
+    <t>36432М Бобышка LM ADM / MEDENTiKA BoneTrust Conical 3.4 / 4.0 D=11.5 мм с позиционером без внутр. резьбы V.1</t>
+  </si>
+  <si>
+    <t>36602М Бобышка LM ARUM Astra Tech 3.5/4.0 D=10 мм с позиционером без внутр. резьбы (арт. A047) V.1</t>
+  </si>
+  <si>
+    <t>36406М Бобышка LM ADM / MEDENTiKA Xive 3.4 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 40634) V.1</t>
+  </si>
+  <si>
+    <t>36408М Бобышка LM ADM / MEDENTiKA Xive 4.5 D=11.5 мм с позиционером без внутр. резьбы V.4</t>
+  </si>
+  <si>
+    <t>36420М Бобышка LM ADM / MEDENTiKA Nobel Active NP (3.5) D=11.5 мм с позиционером без внутр. резьбы (MED арт. F9000-R) V.1</t>
+  </si>
+  <si>
+    <t>36405Муп2 Бобышка LM ADM / MEDENTiKA Mis SP (3.75/4.2) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.2</t>
+  </si>
+  <si>
+    <t>36414Мупм2 Бобышка LM ADM / MEDENTiKA Straumann Bone Level RC ( 4.1/4.8) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36608М Бобышка LM ARUM Osstem Implant Regular (4.0/4.5/5.0) D=10 мм с позиционером без внутр. резьбы V.3</t>
+  </si>
+  <si>
+    <t>36436Мупм2 Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) NP (3.3) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36431Мупм2 Бобышка LM ADM / MEDENTiKA ICX Medentis D=11.5 мм с позиционером без внутр. резьбы (MED арт. CX 9000-R) / 2 ВИНТА, УПАК V.5</t>
+  </si>
+  <si>
+    <t>36416Мупм2 Бобышка LM ADM / MEDENTiKA Ankylos X D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04070211) / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36417Мупм2 Бобышка LM ADM / MEDENTiKA Mis WP (5.0/6.0) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36474Муп2 Бобышка LM ADM / MEDENTiKA NeoBiotech 3.8 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36444Мупм2 Бобышка LM ADM / MEDENTiKA BioHorizons 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36525М Бобышка LM ZIRKONZAHN Zimmer 4.5 D=12 мм с позиционером с внутр. резьбой (арт. BSAF1182) V.1</t>
+  </si>
+  <si>
+    <t>36461Муп2 Бобышка LM ADM / MEDENTiKA MegaGen AnyOne D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36989Муп2 Бобышка LM ADM / MEDENTiKA Zimmer 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, В БЛИСТЕРЕ V.1</t>
+  </si>
+  <si>
+    <t>36405М1упм Бобышка LM ADM / MEDENTiKA Mis SP (3.75/4.2) D=11.5 мм с позиционером без внутр. резьбы / 1 ВИНТ В ПРОБИРКЕ, В БЛИСТЕРЕ V.2</t>
+  </si>
+  <si>
+    <t>36407Мупм2 Бобышка LM ADM / MEDENTiKA Xive 3.8 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. T 9005-R) / 2 ВИНТА, УПАК V.4</t>
+  </si>
+  <si>
+    <t>36417М Бобышка LM ADM / MEDENTiKA Mis WP (5.0/6.0) D=11.5 мм с позиционером без внутр. резьбы V.1</t>
+  </si>
+  <si>
+    <t>36413Мупм2 Бобышка LM ADM / MEDENTiKA Straumann Bone Level NC (3.3) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04083311) / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36401Мупм2 Бобышка LM ADM / MEDENTiKA Nobel Replace Select 4.3 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
+  </si>
+  <si>
+    <t>36429М1упм2 Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) SP (3.75/4.2) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.2</t>
+  </si>
+  <si>
+    <t>36652Муп2 Бобышка LM ADM / MEDENTiKA MegaGen MiNi D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, В БЛИСТЕРЕ V.1</t>
+  </si>
+  <si>
+    <t>36422Мупм2 Бобышка LM ADM / MEDENTiKA Bego Semados 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
+  </si>
+  <si>
+    <t>36635Муп2 Бобышка LM ARUM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=10 мм с позиционером с внутр. резьбой (арт. A090) / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>37559МД Бобышка LM Long (собств. разр.) Nobel Active NP (3.5) D=10 мм с позиционером с внутр. резьбой V.1</t>
+  </si>
+  <si>
+    <t>36451Мупм2 Бобышка LM ADM / MEDENTiKA Straumann SynOcta WN (6.5) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36449Мупм2 Бобышка LM ADM / MEDENTiKA DIO SM NP (3.8) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>37473МД Бобышка LM Long (собств. разр.) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) D=10 мм с позиционером с внутр. резьбой V.1</t>
+  </si>
+  <si>
+    <t>36467Муп2 Бобышка LM ADM / MEDENTiKA Alpha Bio Conical Narrow D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36425Мупм2 Бобышка LM ADM / MEDENTiKA Osstem Implant Mini (3.5) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 041035) / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36400Мупм2 Бобышка LM ADM / MEDENTiKA Nobel Replace Select 3.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36450Мупм2 Бобышка LM ADM / MEDENTiKA DIO SM RP (4.5) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36411М Бобышка LM ADM / MEDENTiKA Zimmer 3.5 D=11.5 мм с позиционером без внутр. резьбы (MED арт. R 9000-R) V.4</t>
+  </si>
+  <si>
+    <t>36469Муп2 Бобышка LM ADM / MEDENTiKA Bego Semados 4.1 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
     <t>36452Мупм2 Бобышка LM ADM / MEDENTiKA Straumann SynOcta RN (4.8) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
-    <t>36438М Бобышка LM ADM / MEDENTiKA MegaGen AnyRidge D=11.5 мм с позиционером с внутр. резьбой V.1</t>
-  </si>
-  <si>
-    <t>36436М Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) NP (3.3) D=11.5 мм с позиционером с внутр. резьбой V.1</t>
-  </si>
-  <si>
-    <t>36407М Бобышка LM ADM / MEDENTiKA Xive 3.8 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. T 9005-R) V.4</t>
+    <t>36443Мупм2 Бобышка LM ADM / MEDENTiKA BioHorizons 3.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36406Мупм2 Бобышка LM ADM / MEDENTiKA Xive 3.4 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 40634) / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36405Мупм2 Бобышка LM ADM / MEDENTiKA Mis SP (3.75/4.2) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04103511) / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36426Мупм2 Бобышка LM ADM / MEDENTiKA Osstem Implant Regular (4.0/4.5/5.0) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 410140) / 2 ВИНТА, УПА</t>
+  </si>
+  <si>
+    <t>36993М Бобышка LM ARUM Straumann SynOcta RN (4.8) D=10 мм с позиционером без внутр. резьбы (арт. A101) V.1</t>
+  </si>
+  <si>
+    <t>36402М Бобышка LM ADM / MEDENTiKA Nobel Replace Select 5.0 D=11.5 мм с позиционером без внутр. резьбы V.4</t>
+  </si>
+  <si>
+    <t>36415Мупм2 Бобышка LM ADM / MEDENTiKA Implantium D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 40500) / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36444М Бобышка LM ADM / MEDENTiKA BioHorizons 4.5 D=11.5 мм с позиционером без внутр. резьбы V.1</t>
+  </si>
+  <si>
+    <t>37471МД Бобышка LM Long (собств. разр.) ICX Medentis D=10 мм с позиционером с внутр. резьбой V.1</t>
+  </si>
+  <si>
+    <t>36425М1упм Бобышка LM ADM / MEDENTiKA Osstem Implant Mini (3.5) D=11.5 мм с позиционером без внутр. резьбы / 1 ВИНТ В ПРОБИРКЕ, В БЛИСТЕРЕ V.2</t>
+  </si>
+  <si>
+    <t>36438МV2 Бобышка LM ADM / MEDENTiKA MegaGen AnyRidge D=11.5 мм с позиционером с внутр. резьбой V.2</t>
+  </si>
+  <si>
+    <t>36408Мупм2 Бобышка LM ADM / MEDENTiKA Xive 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
+  </si>
+  <si>
+    <t>36416Мупм Бобышка LM ADM / MEDENTiKA Ankylos X D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04070211) / 1 ВИНТ В ПРОБИРКЕ, В БЛИСТЕРЕ V.1</t>
+  </si>
+  <si>
+    <t>36415Мупм Бобышка LM ADM / MEDENTiKA Implantium, Impro D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 40500) / 1 ВИНТ В ПРОБИРКЕ, В БЛИСТЕРЕ V.1</t>
+  </si>
+  <si>
+    <t>36443М Бобышка LM ADM / MEDENTiKA BioHorizons 3.5 D=11.5 мм с позиционером без внутр. резьбы V.1</t>
+  </si>
+  <si>
+    <t>36452М Бобышка LM ADM / MEDENTiKA Straumann SynOcta RN (4.8) D=11.5 мм с позиционером без внутр. резьбы V.1</t>
+  </si>
+  <si>
+    <t>36401М Бобышка LM ADM / MEDENTiKA Nobel Replace Select 4.3 D=11.5 мм с позиционером без внутр. резьбы V.4</t>
+  </si>
+  <si>
+    <t>36429М Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) SP (3.75/4.2) D=11.5 мм с позиционером с внутр. резьбой (ADM арт. 04133711) V.1</t>
+  </si>
+  <si>
+    <t>36438Мупм2 Бобышка LM ADM / MEDENTiKA MegaGen AnyRidge D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
     <t>36422М Бобышка LM ADM / MEDENTiKA Bego Semados 4.5 D=11.5 мм с позиционером без внутр. резьбы V.4</t>
   </si>
   <si>
-    <t>36469М Бобышка LM ADM / MEDENTiKA Bego Semados 4.1 D=11.5 мм с позиционером без внутр. резьбы V.1</t>
-  </si>
-  <si>
-    <t>36614М Бобышка LM ARUM Mis SP (3.75/4.2) D=10 мм с позиционером с внутр. резьбой (арт. А187) V.1</t>
-  </si>
-  <si>
-    <t>36432М Бобышка LM ADM / MEDENTiKA BoneTrust Conical 3.4 / 4.0 D=11.5 мм с позиционером без внутр. резьбы V.1</t>
-  </si>
-  <si>
-    <t>36439М Бобышка LM ADM / MEDENTiKA Bego Semados 3.25/3.75 D=11.5 мм с позиционером без внутр. резьбы V.4</t>
-  </si>
-  <si>
-    <t>36416МС Бобышка LM ADM / MEDENTiKA Ankylos C D=11.5 мм без позиционера без внутр. резьбы (ADM арт. 040700) V.1</t>
-  </si>
-  <si>
-    <t>36406М Бобышка LM ADM / MEDENTiKA Xive 3.4 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 40634) V.1</t>
-  </si>
-  <si>
-    <t>36408М Бобышка LM ADM / MEDENTiKA Xive 4.5 D=11.5 мм с позиционером без внутр. резьбы V.4</t>
-  </si>
-  <si>
-    <t>36420М Бобышка LM ADM / MEDENTiKA Nobel Active NP (3.5) D=11.5 мм с позиционером без внутр. резьбы (MED арт. F9000-R) V.1</t>
-  </si>
-  <si>
-    <t>36605Мупм Бобышка LM ARUM Mis C1 (Conical) SP (3.75/4.2) D=10 мм с позиционером с внутр. резьбой (арт. A184) / 1 ВИНТ В ПРОБИРКЕ, В БЛИСТЕРЕ V.1</t>
-  </si>
-  <si>
-    <t>36614Мупм Бобышка LM ARUM Mis SP (3.75/4.2) D=10 мм с позиционером с внутр. резьбой (арт. А187) / 1 ВИНТ В ПРОБИРКЕ, В БЛИСТЕРЕ V.1</t>
-  </si>
-  <si>
-    <t>36405Муп2 Бобышка LM ADM / MEDENTiKA Mis SP (3.75/4.2) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.2</t>
-  </si>
-  <si>
-    <t>36414Мупм2 Бобышка LM ADM / MEDENTiKA Straumann Bone Level RC ( 4.1/4.8) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36608М Бобышка LM ARUM Osstem Implant Regular (4.0/4.5/5.0) D=10 мм с позиционером без внутр. резьбы V.3</t>
-  </si>
-  <si>
-    <t>36436Мупм2 Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) NP (3.3) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36474Муп2 Бобышка LM ADM / MEDENTiKA NeoBiotech 3.8 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36444Мупм2 Бобышка LM ADM / MEDENTiKA BioHorizons 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36525М Бобышка LM ZIRKONZAHN Zimmer 4.5 D=12 мм с позиционером с внутр. резьбой (арт. BSAF1182) V.1</t>
-  </si>
-  <si>
-    <t>36410М Бобышка LM ADM / MEDENTiKA Astra Tech 4.5/5.0 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04034511) V.1</t>
-  </si>
-  <si>
-    <t>36417Мупм2 Бобышка LM ADM / MEDENTiKA Mis WP (5.0/6.0) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36461Муп2 Бобышка LM ADM / MEDENTiKA MegaGen AnyOne D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36469Муп2 Бобышка LM ADM / MEDENTiKA Bego Semados 4.1 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36989Муп2 Бобышка LM ADM / MEDENTiKA Zimmer 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, В БЛИСТЕРЕ V.1</t>
-  </si>
-  <si>
-    <t>36407Мупм2 Бобышка LM ADM / MEDENTiKA Xive 3.8 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. T 9005-R) / 2 ВИНТА, УПАК V.4</t>
-  </si>
-  <si>
-    <t>36401Мупм2 Бобышка LM ADM / MEDENTiKA Nobel Replace Select 4.3 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
-  </si>
-  <si>
-    <t>36417М Бобышка LM ADM / MEDENTiKA Mis WP (5.0/6.0) D=11.5 мм с позиционером без внутр. резьбы V.1</t>
-  </si>
-  <si>
-    <t>36413Мупм2 Бобышка LM ADM / MEDENTiKA Straumann Bone Level NC (3.3) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04083311) / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36429М1упм2 Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) SP (3.75/4.2) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.2</t>
-  </si>
-  <si>
-    <t>36652Муп2 Бобышка LM ADM / MEDENTiKA MegaGen MiNi D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, В БЛИСТЕРЕ V.1</t>
-  </si>
-  <si>
-    <t>36422Мупм2 Бобышка LM ADM / MEDENTiKA Bego Semados 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
-  </si>
-  <si>
-    <t>36635Муп2 Бобышка LM ARUM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=10 мм с позиционером с внутр. резьбой (арт. A090) / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>37559МД Бобышка LM Long (собств. разр.) Nobel Active NP (3.5) D=10 мм с позиционером с внутр. резьбой V.1</t>
-  </si>
-  <si>
-    <t>36451Мупм2 Бобышка LM ADM / MEDENTiKA Straumann SynOcta WN (6.5) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36449Мупм2 Бобышка LM ADM / MEDENTiKA DIO SM NP (3.8) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36450Мупм2 Бобышка LM ADM / MEDENTiKA DIO SM RP (4.5) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36400Мупм2 Бобышка LM ADM / MEDENTiKA Nobel Replace Select 3.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36425Мупм2 Бобышка LM ADM / MEDENTiKA Osstem Implant Mini (3.5) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 041035) / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>37473МД Бобышка LM Long (собств. разр.) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) D=10 мм с позиционером с внутр. резьбой V.1</t>
-  </si>
-  <si>
-    <t>36431Мупм2 Бобышка LM ADM / MEDENTiKA ICX Medentis D=11.5 мм с позиционером без внутр. резьбы (MED арт. CX 9000-R) / 2 ВИНТА, УПАК V.5</t>
-  </si>
-  <si>
-    <t>36443Мупм2 Бобышка LM ADM / MEDENTiKA BioHorizons 3.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36467Муп2 Бобышка LM ADM / MEDENTiKA Alpha Bio Conical Narrow D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36416Мупм2 Бобышка LM ADM / MEDENTiKA Ankylos X D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04070211) / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36426Мупм2 Бобышка LM ADM / MEDENTiKA Osstem Implant Regular (4.0/4.5/5.0) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 410140) / 2 ВИНТА, УПА</t>
-  </si>
-  <si>
-    <t>36405Мупм2 Бобышка LM ADM / MEDENTiKA Mis SP (3.75/4.2) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04103511) / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36406Мупм2 Бобышка LM ADM / MEDENTiKA Xive 3.4 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 40634) / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36402М Бобышка LM ADM / MEDENTiKA Nobel Replace Select 5.0 D=11.5 мм с позиционером без внутр. резьбы V.4</t>
-  </si>
-  <si>
-    <t>36415Мупм2 Бобышка LM ADM / MEDENTiKA Implantium D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 40500) / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36993М Бобышка LM ARUM Straumann SynOcta RN (4.8) D=10 мм с позиционером без внутр. резьбы (арт. A101) V.1</t>
-  </si>
-  <si>
-    <t>36444М Бобышка LM ADM / MEDENTiKA BioHorizons 4.5 D=11.5 мм с позиционером без внутр. резьбы V.1</t>
-  </si>
-  <si>
-    <t>36438МV2 Бобышка LM ADM / MEDENTiKA MegaGen AnyRidge D=11.5 мм с позиционером с внутр. резьбой V.2</t>
-  </si>
-  <si>
-    <t>36408Мупм2 Бобышка LM ADM / MEDENTiKA Xive 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
-  </si>
-  <si>
-    <t>37471МД Бобышка LM Long (собств. разр.) ICX Medentis D=10 мм с позиционером с внутр. резьбой V.1</t>
-  </si>
-  <si>
-    <t>36443М Бобышка LM ADM / MEDENTiKA BioHorizons 3.5 D=11.5 мм с позиционером без внутр. резьбы V.1</t>
-  </si>
-  <si>
-    <t>36452М Бобышка LM ADM / MEDENTiKA Straumann SynOcta RN (4.8) D=11.5 мм с позиционером без внутр. резьбы V.1</t>
-  </si>
-  <si>
-    <t>36608Мопт Бобышка LM ARUM Osstem Implant Regular (4.0/4.5/5.0) D=10 мм с позиционером без внутр. резьбы / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.3</t>
-  </si>
-  <si>
-    <t>36401М Бобышка LM ADM / MEDENTiKA Nobel Replace Select 4.3 D=11.5 мм с позиционером без внутр. резьбы V.4</t>
-  </si>
-  <si>
-    <t>36994Мопт Бобышка LM TRINITI Osstem Implant Mini (3.5) D=10 мм с позиционером без внутр. резьбы / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
-  </si>
-  <si>
-    <t>36429М Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) SP (3.75/4.2) D=11.5 мм с позиционером с внутр. резьбой (ADM арт. 04133711) V.1</t>
-  </si>
-  <si>
-    <t>36438Мупм2 Бобышка LM ADM / MEDENTiKA MegaGen AnyRidge D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
     <t>36440Мупм2 Бобышка LM ADM / MEDENTiKA Mis NP (3.3) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
@@ -303,6 +300,9 @@
   </si>
   <si>
     <t>36608М Бобышка LM ARUM Osstem Implant Regular (4.0/4.5/5.0) D=10 мм с позиционером без внутр. резьбы (арт. A032) V.1</t>
+  </si>
+  <si>
+    <t>36612Мопт Бобышка LM ARUM Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) D=10 мм с позиционером с внутр. резьбой (арт. А091) / ВКЛ. 1 ВИНТ,</t>
   </si>
 </sst>
 </file>
@@ -859,15 +859,15 @@
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="16">
-        <v>6389</v>
+        <v>6199</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="4">
-        <v>3551</v>
+        <v>3431</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>2838</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -877,7 +877,7 @@
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="18">
-        <v>1143</v>
+        <v>1158</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="7">
@@ -885,7 +885,7 @@
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="7">
-        <v>513</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -929,15 +929,15 @@
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="19">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="7">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="7">
-        <v>121</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -947,15 +947,15 @@
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="19">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="7">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="7">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -965,15 +965,15 @@
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="19">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="7">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="7">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -983,15 +983,15 @@
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="19">
-        <v>651</v>
+        <v>137</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="7">
-        <v>550</v>
+        <v>35</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1001,15 +1001,15 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="19">
-        <v>250</v>
+        <v>651</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="7">
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="7">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1037,7 +1037,7 @@
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="19">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="7">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="7">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1070,14 +1070,16 @@
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="19">
-        <v>50</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="8"/>
+      <c r="D18" s="18">
+        <v>1045</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="6">
+        <v>1000</v>
+      </c>
       <c r="G18" s="8"/>
       <c r="H18" s="7">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1087,13 +1089,15 @@
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="19">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E19" s="19"/>
-      <c r="F19" s="8"/>
+      <c r="F19" s="7">
+        <v>12</v>
+      </c>
       <c r="G19" s="8"/>
       <c r="H19" s="7">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1103,13 +1107,15 @@
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="19">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="E20" s="19"/>
-      <c r="F20" s="8"/>
+      <c r="F20" s="7">
+        <v>70</v>
+      </c>
       <c r="G20" s="8"/>
       <c r="H20" s="7">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1118,16 +1124,14 @@
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="18">
-        <v>1045</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="6">
-        <v>1000</v>
-      </c>
+      <c r="D21" s="19">
+        <v>40</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="7">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1137,7 +1141,7 @@
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="19">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="7">
@@ -1145,7 +1149,7 @@
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="7">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1155,15 +1159,13 @@
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="19">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="E23" s="19"/>
-      <c r="F23" s="7">
-        <v>70</v>
-      </c>
+      <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="7">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1176,10 +1178,12 @@
         <v>40</v>
       </c>
       <c r="E24" s="19"/>
-      <c r="F24" s="8"/>
+      <c r="F24" s="7">
+        <v>14</v>
+      </c>
       <c r="G24" s="8"/>
       <c r="H24" s="7">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1189,13 +1193,13 @@
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="19">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="7">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1205,15 +1209,13 @@
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="19">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E26" s="19"/>
-      <c r="F26" s="7">
-        <v>12</v>
-      </c>
+      <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="7">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1223,15 +1225,15 @@
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="19">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="7">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="7">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1241,13 +1243,15 @@
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="19">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E28" s="19"/>
-      <c r="F28" s="8"/>
+      <c r="F28" s="7">
+        <v>10</v>
+      </c>
       <c r="G28" s="8"/>
       <c r="H28" s="7">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1257,13 +1261,13 @@
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1273,12 +1277,10 @@
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="19">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E30" s="19"/>
-      <c r="F30" s="7">
-        <v>100</v>
-      </c>
+      <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="7">
         <v>20</v>
@@ -1291,13 +1293,15 @@
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="19">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E31" s="19"/>
-      <c r="F31" s="8"/>
+      <c r="F31" s="7">
+        <v>14</v>
+      </c>
       <c r="G31" s="8"/>
       <c r="H31" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1311,11 +1315,11 @@
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1325,15 +1329,13 @@
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="19">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E33" s="19"/>
-      <c r="F33" s="7">
-        <v>10</v>
-      </c>
+      <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1343,15 +1345,15 @@
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="19">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="7">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1361,15 +1363,15 @@
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="19">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="7">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="7">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1379,13 +1381,15 @@
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="19">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E36" s="19"/>
-      <c r="F36" s="8"/>
+      <c r="F36" s="7">
+        <v>59</v>
+      </c>
       <c r="G36" s="8"/>
       <c r="H36" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1395,13 +1399,13 @@
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1411,13 +1415,15 @@
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38" s="19"/>
-      <c r="F38" s="8"/>
+      <c r="F38" s="7">
+        <v>4</v>
+      </c>
       <c r="G38" s="8"/>
       <c r="H38" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1427,15 +1433,13 @@
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="19">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E39" s="19"/>
-      <c r="F39" s="7">
-        <v>29</v>
-      </c>
+      <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1445,15 +1449,13 @@
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="19">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E40" s="19"/>
-      <c r="F40" s="7">
-        <v>30</v>
-      </c>
+      <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1463,15 +1465,15 @@
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="19">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="7">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1481,13 +1483,13 @@
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E42" s="19"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1497,11 +1499,11 @@
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="19">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="7">
@@ -1515,10 +1517,12 @@
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="19">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E44" s="19"/>
-      <c r="F44" s="8"/>
+      <c r="F44" s="7">
+        <v>36</v>
+      </c>
       <c r="G44" s="8"/>
       <c r="H44" s="7">
         <v>10</v>
@@ -1531,12 +1535,10 @@
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="19">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E45" s="19"/>
-      <c r="F45" s="7">
-        <v>20</v>
-      </c>
+      <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="7">
         <v>10</v>
@@ -1549,12 +1551,10 @@
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="19">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E46" s="19"/>
-      <c r="F46" s="7">
-        <v>40</v>
-      </c>
+      <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="7">
         <v>10</v>
@@ -1583,12 +1583,10 @@
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="19">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E48" s="19"/>
-      <c r="F48" s="7">
-        <v>36</v>
-      </c>
+      <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="7">
         <v>10</v>
@@ -1601,11 +1599,11 @@
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="7">
@@ -1667,10 +1665,12 @@
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E53" s="19"/>
-      <c r="F53" s="8"/>
+      <c r="F53" s="7">
+        <v>10</v>
+      </c>
       <c r="G53" s="8"/>
       <c r="H53" s="7">
         <v>10</v>
@@ -1683,12 +1683,10 @@
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E54" s="19"/>
-      <c r="F54" s="7">
-        <v>15</v>
-      </c>
+      <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="7">
         <v>10</v>
@@ -1733,12 +1731,10 @@
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E57" s="19"/>
-      <c r="F57" s="7">
-        <v>10</v>
-      </c>
+      <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="7">
         <v>10</v>
@@ -1847,10 +1843,12 @@
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E64" s="19"/>
-      <c r="F64" s="8"/>
+      <c r="F64" s="7">
+        <v>10</v>
+      </c>
       <c r="G64" s="8"/>
       <c r="H64" s="7">
         <v>10</v>
@@ -1879,12 +1877,10 @@
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="19">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E66" s="19"/>
-      <c r="F66" s="7">
-        <v>4</v>
-      </c>
+      <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="7">
         <v>10</v>
@@ -1897,13 +1893,13 @@
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1913,13 +1909,13 @@
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1929,13 +1925,15 @@
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="19">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E69" s="19"/>
-      <c r="F69" s="8"/>
+      <c r="F69" s="7">
+        <v>20</v>
+      </c>
       <c r="G69" s="8"/>
       <c r="H69" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1945,15 +1943,13 @@
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="19">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E70" s="19"/>
-      <c r="F70" s="7">
-        <v>20</v>
-      </c>
+      <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1963,13 +1959,15 @@
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="19">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E71" s="19"/>
-      <c r="F71" s="8"/>
+      <c r="F71" s="7">
+        <v>5</v>
+      </c>
       <c r="G71" s="8"/>
       <c r="H71" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1979,13 +1977,15 @@
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="19">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E72" s="19"/>
-      <c r="F72" s="8"/>
+      <c r="F72" s="7">
+        <v>35</v>
+      </c>
       <c r="G72" s="8"/>
       <c r="H72" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1995,15 +1995,13 @@
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="19">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E73" s="19"/>
-      <c r="F73" s="7">
-        <v>5</v>
-      </c>
+      <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2013,15 +2011,15 @@
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="19">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E74" s="19"/>
       <c r="F74" s="7">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="G74" s="8"/>
       <c r="H74" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2031,13 +2029,13 @@
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E75" s="19"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2047,13 +2045,15 @@
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="19">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="E76" s="19"/>
-      <c r="F76" s="8"/>
+      <c r="F76" s="7">
+        <v>80</v>
+      </c>
       <c r="G76" s="8"/>
       <c r="H76" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2063,12 +2063,10 @@
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="19">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="E77" s="19"/>
-      <c r="F77" s="7">
-        <v>80</v>
-      </c>
+      <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="7">
         <v>5</v>
@@ -2097,15 +2095,13 @@
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="19">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E79" s="19"/>
-      <c r="F79" s="7">
-        <v>5</v>
-      </c>
+      <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2165,13 +2161,13 @@
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E83" s="19"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2229,10 +2225,12 @@
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="19">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="E87" s="19"/>
-      <c r="F87" s="8"/>
+      <c r="F87" s="7">
+        <v>130</v>
+      </c>
       <c r="G87" s="8"/>
       <c r="H87" s="7">
         <v>2</v>
@@ -2245,15 +2243,13 @@
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="19">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="E88" s="19"/>
-      <c r="F88" s="7">
-        <v>130</v>
-      </c>
+      <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2279,15 +2275,15 @@
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
       <c r="D90" s="20">
-        <v>6389</v>
+        <v>6199</v>
       </c>
       <c r="E90" s="20"/>
       <c r="F90" s="9">
-        <v>3551</v>
+        <v>3431</v>
       </c>
       <c r="G90" s="10"/>
       <c r="H90" s="9">
-        <v>2838</v>
+        <v>2768</v>
       </c>
     </row>
   </sheetData>
